--- a/src/main/webapp/document/information.xlsx
+++ b/src/main/webapp/document/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>truongnguenlqm@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Van Trung</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -599,16 +602,16 @@
         <v>29.0</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -616,16 +619,16 @@
         <v>30.0</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -633,50 +636,16 @@
         <v>31.0</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="B32" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s" s="0">
         <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="B33" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/information.xlsx
+++ b/src/main/webapp/document/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Nguyen Van Trung</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyen Van Truong4</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,7 +123,7 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.6953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.80859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -648,6 +654,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/document/information.xlsx
+++ b/src/main/webapp/document/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Nguyen Van Trung</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Nguyen Van Truong4</t>
   </si>
 </sst>
 </file>
@@ -115,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,7 +117,7 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.80859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -654,40 +648,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>32.0</v>
-      </c>
-      <c r="B32" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="0">
-        <v>33.0</v>
-      </c>
-      <c r="B33" t="n" s="0">
-        <v>37.0</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/document/information.xlsx
+++ b/src/main/webapp/document/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -29,13 +29,28 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Trần Thanh Nam</t>
-  </si>
-  <si>
-    <t>(+84) 828 480 129</t>
-  </si>
-  <si>
-    <t>SC31 âdsdadajajsjajdajda</t>
+    <t>Nguyen Van Truong</t>
+  </si>
+  <si>
+    <t>0377379249</t>
+  </si>
+  <si>
+    <t>travelbeewebsite@gmail.com</t>
+  </si>
+  <si>
+    <t>Vo Van Hau</t>
+  </si>
+  <si>
+    <t>0372172775</t>
+  </si>
+  <si>
+    <t>truongnguenlqm@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Van Trung</t>
+  </si>
+  <si>
+    <t>Nguyen Van Truong4</t>
   </si>
 </sst>
 </file>
@@ -91,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,8 +114,8 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.90625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.2265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -125,7 +140,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>5</v>
@@ -134,6 +149,57 @@
         <v>6</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/src/main/webapp/document/information.xlsx
+++ b/src/main/webapp/document/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Nguyen Van Truong4</t>
+  </si>
+  <si>
+    <t>Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>0776644770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS27 </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tài</t>
+  </si>
+  <si>
+    <t>tai@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -106,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,6 +218,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
